--- a/tabular/core/lenti-core-reference-data.xlsx
+++ b/tabular/core/lenti-core-reference-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F078BF-08D2-384F-B30F-75777420AB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7F26F7-36C1-E14B-A697-F54619828419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2880" yWindow="500" windowWidth="38620" windowHeight="24740" xr2:uid="{FE909052-171A-A641-A05A-6F5B3D043973}"/>
   </bookViews>
@@ -653,12 +653,13 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="E5" sqref="A1:N7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">

--- a/tabular/core/lenti-core-reference-data.xlsx
+++ b/tabular/core/lenti-core-reference-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/retrovirus/Lentivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7F26F7-36C1-E14B-A697-F54619828419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF10B55-E620-134D-85CC-7862D2E0C0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2880" yWindow="500" windowWidth="38620" windowHeight="24740" xr2:uid="{FE909052-171A-A641-A05A-6F5B3D043973}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
   <si>
     <t>sequenceID</t>
   </si>
@@ -653,7 +653,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="M7" sqref="A1:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -679,13 +679,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
@@ -726,10 +726,10 @@
         <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>20</v>
@@ -766,14 +766,14 @@
       <c r="E3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="9">
-        <v>1</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>19</v>
+      <c r="H3" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>30</v>
@@ -813,11 +813,11 @@
       <c r="F4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>40</v>
@@ -858,10 +858,10 @@
         <v>18</v>
       </c>
       <c r="G5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>46</v>
@@ -899,13 +899,13 @@
         <v>52</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
+      <c r="H6" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>54</v>
@@ -943,13 +943,13 @@
         <v>52</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>54</v>

--- a/tabular/core/lenti-core-reference-data.xlsx
+++ b/tabular/core/lenti-core-reference-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/retrovirus/Lentivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF10B55-E620-134D-85CC-7862D2E0C0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157E24A5-F7CF-9B41-B1A7-4B0AF74FECDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="500" windowWidth="38620" windowHeight="24740" xr2:uid="{FE909052-171A-A641-A05A-6F5B3D043973}"/>
+    <workbookView xWindow="2360" yWindow="2180" windowWidth="38620" windowHeight="24740" xr2:uid="{FE909052-171A-A641-A05A-6F5B3D043973}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="87">
   <si>
     <t>sequenceID</t>
   </si>
@@ -214,6 +214,87 @@
   </si>
   <si>
     <t>X05291</t>
+  </si>
+  <si>
+    <t>1GA</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Capra hircus</t>
+  </si>
+  <si>
+    <t>AF322109</t>
+  </si>
+  <si>
+    <t>EU293537</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>Roccaverano</t>
+  </si>
+  <si>
+    <t>GQ381130</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>Seui</t>
+  </si>
+  <si>
+    <t>NC_001463</t>
+  </si>
+  <si>
+    <t>Clements</t>
+  </si>
+  <si>
+    <t>Fonni</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>JF502416</t>
+  </si>
+  <si>
+    <t>Small ruminant lentivirus genotype B</t>
+  </si>
+  <si>
+    <t>Small ruminant lentivirus genotype G</t>
+  </si>
+  <si>
+    <t>Small ruminant lentivirus genotype E1</t>
+  </si>
+  <si>
+    <t>Small ruminant lentivirus genotype E2</t>
+  </si>
+  <si>
+    <t>Small ruminant lentivirus genotypeB3</t>
+  </si>
+  <si>
+    <t>SRLV-B</t>
+  </si>
+  <si>
+    <t>SRLV-G</t>
+  </si>
+  <si>
+    <t>SRLV-E1</t>
+  </si>
+  <si>
+    <t>SRLV-E2</t>
+  </si>
+  <si>
+    <t>SRLV-B3</t>
   </si>
 </sst>
 </file>
@@ -268,7 +349,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,6 +374,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -306,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -334,6 +421,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -650,16 +743,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C2DC8D-E1B0-2C4C-9AA7-A4C10E556117}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="M7" sqref="A1:N7"/>
+      <selection activeCell="G10" sqref="A1:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -751,226 +844,449 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="8" t="s">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="A4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="H4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="8" t="s">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>51</v>
+      <c r="A6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>53</v>
+      <c r="F6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>34</v>
+      <c r="K6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="N6" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="A7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="10" t="s">
+      <c r="G7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1974</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="9">
+        <v>3</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="9">
+        <v>2</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" s="10" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N12">
+    <sortCondition ref="C2:C12"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tabular/core/lenti-core-reference-data.xlsx
+++ b/tabular/core/lenti-core-reference-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/retrovirus/Lentivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157E24A5-F7CF-9B41-B1A7-4B0AF74FECDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7CB577-2588-F84B-84F8-E3BFCD3C425E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2360" yWindow="2180" windowWidth="38620" windowHeight="24740" xr2:uid="{FE909052-171A-A641-A05A-6F5B3D043973}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="87">
   <si>
     <t>sequenceID</t>
   </si>
@@ -746,7 +746,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="G10" sqref="A1:N12"/>
+      <selection activeCell="N12" sqref="A1:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1035,8 +1035,8 @@
       <c r="E7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>29</v>
+      <c r="F7" s="8">
+        <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>29</v>
@@ -1079,8 +1079,8 @@
       <c r="E8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>33</v>
+      <c r="F8" s="8">
+        <v>1</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>33</v>
@@ -1123,8 +1123,8 @@
       <c r="E9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>75</v>
+      <c r="F9" s="8">
+        <v>3</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>75</v>
@@ -1167,8 +1167,8 @@
       <c r="E10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>67</v>
+      <c r="F10" s="8">
+        <v>1</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>67</v>
@@ -1211,8 +1211,8 @@
       <c r="E11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>70</v>
+      <c r="F11" s="8">
+        <v>2</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>70</v>

--- a/tabular/core/lenti-core-reference-data.xlsx
+++ b/tabular/core/lenti-core-reference-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/retrovirus/Lentivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7CB577-2588-F84B-84F8-E3BFCD3C425E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAF0587-6620-8346-9DE9-43014B453B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2360" yWindow="2180" windowWidth="38620" windowHeight="24740" xr2:uid="{FE909052-171A-A641-A05A-6F5B3D043973}"/>
   </bookViews>
@@ -746,7 +746,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="N12" sqref="A1:N12"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/core/lenti-core-reference-data.xlsx
+++ b/tabular/core/lenti-core-reference-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/retrovirus/Lentivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAF0587-6620-8346-9DE9-43014B453B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356CD8FD-75E9-244E-8E78-75500CFC8980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2360" yWindow="2180" windowWidth="38620" windowHeight="24740" xr2:uid="{FE909052-171A-A641-A05A-6F5B3D043973}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="81">
   <si>
     <t>sequenceID</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Small ruminant lentivirus genotype A</t>
   </si>
   <si>
-    <t>SRLV-A</t>
-  </si>
-  <si>
     <t>SRLV</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
     <t>Human immunodeficiency virus 1</t>
   </si>
   <si>
-    <t>HIV-1M</t>
-  </si>
-  <si>
     <t xml:space="preserve">HIV-1 </t>
   </si>
   <si>
@@ -282,19 +276,7 @@
     <t>Small ruminant lentivirus genotypeB3</t>
   </si>
   <si>
-    <t>SRLV-B</t>
-  </si>
-  <si>
-    <t>SRLV-G</t>
-  </si>
-  <si>
-    <t>SRLV-E1</t>
-  </si>
-  <si>
-    <t>SRLV-E2</t>
-  </si>
-  <si>
-    <t>SRLV-B3</t>
+    <t>HIV-1</t>
   </si>
 </sst>
 </file>
@@ -746,7 +728,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="F5" sqref="A1:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -845,35 +827,35 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="K3" s="3" t="s">
         <v>22</v>
       </c>
@@ -881,7 +863,7 @@
         <v>22</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>22</v>
@@ -889,19 +871,19 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>18</v>
@@ -913,11 +895,11 @@
         <v>18</v>
       </c>
       <c r="I4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="K4" s="8" t="s">
         <v>22</v>
       </c>
@@ -925,7 +907,7 @@
         <v>22</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>22</v>
@@ -933,43 +915,43 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="H5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="J5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>22</v>
@@ -977,19 +959,19 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>19</v>
@@ -998,13 +980,13 @@
         <v>19</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>22</v>
@@ -1030,34 +1012,34 @@
         <v>26</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="F7" s="8">
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H7" s="8">
         <v>1</v>
       </c>
       <c r="I7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="K7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>22</v>
@@ -1065,43 +1047,43 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="F8" s="8">
         <v>1</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" s="9">
         <v>1</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L8" s="8">
         <v>1974</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N8" s="10" t="s">
         <v>22</v>
@@ -1109,43 +1091,43 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="F9" s="8">
         <v>3</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H9" s="9">
         <v>3</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L9" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N9" s="10" t="s">
         <v>22</v>
@@ -1153,43 +1135,43 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="F10" s="8">
         <v>1</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H10" s="9">
         <v>1</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>22</v>
@@ -1197,43 +1179,43 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="F11" s="8">
         <v>2</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H11" s="9">
         <v>2</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L11" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N11" s="10" t="s">
         <v>22</v>
@@ -1241,43 +1223,43 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="F12" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H12" s="9">
         <v>1</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>22</v>

--- a/tabular/core/lenti-core-reference-data.xlsx
+++ b/tabular/core/lenti-core-reference-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/retrovirus/Lentivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356CD8FD-75E9-244E-8E78-75500CFC8980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CB7D58-FD4D-3845-8126-12D20B3E06E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="2180" windowWidth="38620" windowHeight="24740" xr2:uid="{FE909052-171A-A641-A05A-6F5B3D043973}"/>
+    <workbookView xWindow="2320" yWindow="2160" windowWidth="38620" windowHeight="24740" xr2:uid="{FE909052-171A-A641-A05A-6F5B3D043973}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="77">
   <si>
     <t>sequenceID</t>
   </si>
@@ -42,9 +42,6 @@
     <t>full_name</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>species</t>
   </si>
   <si>
@@ -231,18 +228,12 @@
     <t>Italy</t>
   </si>
   <si>
-    <t>E1</t>
-  </si>
-  <si>
     <t>Roccaverano</t>
   </si>
   <si>
     <t>GQ381130</t>
   </si>
   <si>
-    <t>E2</t>
-  </si>
-  <si>
     <t>Seui</t>
   </si>
   <si>
@@ -255,9 +246,6 @@
     <t>Fonni</t>
   </si>
   <si>
-    <t>B3</t>
-  </si>
-  <si>
     <t>JF502416</t>
   </si>
   <si>
@@ -276,7 +264,7 @@
     <t>Small ruminant lentivirus genotypeB3</t>
   </si>
   <si>
-    <t>HIV-1</t>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -375,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -398,9 +386,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -725,19 +710,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C2DC8D-E1B0-2C4C-9AA7-A4C10E556117}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="F5" sqref="A1:N12"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="41.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -751,16 +738,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
@@ -777,19 +764,16 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>16</v>
@@ -801,10 +785,10 @@
         <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>20</v>
@@ -813,27 +797,24 @@
         <v>21</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>22</v>
+      <c r="M2" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>36</v>
@@ -841,11 +822,11 @@
       <c r="E3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>19</v>
+      <c r="F3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>38</v>
@@ -854,86 +835,80 @@
         <v>39</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>45</v>
       </c>
       <c r="J4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>51</v>
@@ -945,330 +920,303 @@
         <v>53</v>
       </c>
       <c r="K5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>22</v>
+      <c r="C6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
       <c r="G7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>29</v>
       </c>
       <c r="J7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="M7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="E8" s="8">
         <v>1</v>
       </c>
+      <c r="F8" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="G8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1974</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8" s="8">
-        <v>1974</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>22</v>
+      <c r="M8" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>79</v>
+        <v>70</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="E9" s="8">
         <v>3</v>
       </c>
+      <c r="F9" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="G9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="9">
-        <v>3</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>77</v>
-      </c>
       <c r="C10" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="E10" s="8">
         <v>1</v>
       </c>
+      <c r="F10" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="G10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="9">
-        <v>1</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="B11" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="E11" s="8">
         <v>2</v>
       </c>
+      <c r="F11" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="G11" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="9">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="J11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="B12" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="9">
-        <v>1</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>22</v>
+      <c r="M12" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N12">
-    <sortCondition ref="C2:C12"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tabular/core/lenti-core-reference-data.xlsx
+++ b/tabular/core/lenti-core-reference-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/retrovirus/Lentivirus-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/retrovirus/Lentivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CB7D58-FD4D-3845-8126-12D20B3E06E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719E565E-6FB5-6340-B303-81CA217D8AED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="2160" windowWidth="38620" windowHeight="24740" xr2:uid="{FE909052-171A-A641-A05A-6F5B3D043973}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="25840" windowHeight="14600" xr2:uid="{FE909052-171A-A641-A05A-6F5B3D043973}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="82">
   <si>
     <t>sequenceID</t>
   </si>
@@ -90,9 +89,6 @@
     <t>Main</t>
   </si>
   <si>
-    <t>NULL</t>
-  </si>
-  <si>
     <t>Domestic cow</t>
   </si>
   <si>
@@ -252,9 +248,6 @@
     <t>Small ruminant lentivirus genotype B</t>
   </si>
   <si>
-    <t>Small ruminant lentivirus genotype G</t>
-  </si>
-  <si>
     <t>Small ruminant lentivirus genotype E1</t>
   </si>
   <si>
@@ -265,6 +258,27 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>Small ruminant lentivirus genotype C</t>
   </si>
 </sst>
 </file>
@@ -712,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C2DC8D-E1B0-2C4C-9AA7-A4C10E556117}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -721,6 +735,8 @@
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="41.33203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
     <col min="12" max="12" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -738,10 +754,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -779,441 +795,441 @@
         <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="J2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="M2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="J3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="E4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="J4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="M5" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>55</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="J6" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
       <c r="F7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="M7" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>68</v>
       </c>
       <c r="K8" s="8">
         <v>1974</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="8">
-        <v>3</v>
+      <c r="E9" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="8">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="M10" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="K11" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="E12" s="8" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="F12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="M12" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/core/lenti-core-reference-data.xlsx
+++ b/tabular/core/lenti-core-reference-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/retrovirus/Lentivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719E565E-6FB5-6340-B303-81CA217D8AED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F0A354-AEBB-DA43-84AD-63EEEF20188B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="25840" windowHeight="14600" xr2:uid="{FE909052-171A-A641-A05A-6F5B3D043973}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="81">
   <si>
     <t>sequenceID</t>
   </si>
@@ -267,9 +267,6 @@
   </si>
   <si>
     <t>B3</t>
-  </si>
-  <si>
-    <t>C1</t>
   </si>
   <si>
     <t>E2</t>
@@ -727,7 +724,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F9" sqref="A1:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1111,10 +1108,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>24</v>
@@ -1123,10 +1120,10 @@
         <v>25</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>20</v>
@@ -1138,13 +1135,13 @@
         <v>59</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M10" s="9" t="s">
         <v>20</v>
@@ -1152,10 +1149,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>24</v>
@@ -1178,8 +1175,8 @@
       <c r="I11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>65</v>
+      <c r="J11" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>20</v>
@@ -1193,10 +1190,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>24</v>
@@ -1205,7 +1202,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>78</v>
@@ -1219,20 +1216,25 @@
       <c r="I12" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="10" t="s">
-        <v>56</v>
+      <c r="J12" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M12">
+    <sortCondition ref="C2:C12"/>
+    <sortCondition ref="F2:F12"/>
+    <sortCondition ref="E2:E12"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tabular/core/lenti-core-reference-data.xlsx
+++ b/tabular/core/lenti-core-reference-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/retrovirus/Lentivirus-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/retrovirus/Lentivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F0A354-AEBB-DA43-84AD-63EEEF20188B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89552E25-AF29-0B46-AB46-A41FD098C584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="25840" windowHeight="14600" xr2:uid="{FE909052-171A-A641-A05A-6F5B3D043973}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="82">
   <si>
     <t>sequenceID</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>Small ruminant lentivirus genotype C</t>
+  </si>
+  <si>
+    <t>Global Fca</t>
   </si>
 </sst>
 </file>
@@ -425,9 +428,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -465,7 +468,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -571,7 +574,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -713,7 +716,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -724,7 +727,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="A1:M12"/>
+      <selection activeCell="H6" sqref="A1:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -874,7 +877,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>17</v>
